--- a/Luban/Config/Datas/characters.xlsx
+++ b/Luban/Config/Datas/characters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2023UnityFile\ARPG_2023\Luban\Config\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\WGame\Client\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107D1E15-52D9-4523-9BE2-EECEDA50EFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0559F748-66C2-4B9C-90B4-1F0E144A1AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>##var</t>
   </si>
@@ -113,19 +113,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>moveSpeed</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>移速(cm/s)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>rotationSpeed</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>转向速度(度/s)</t>
+    <t>infoId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色属性数据Id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -534,28 +530,28 @@
   <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.21875" customWidth="1"/>
-    <col min="2" max="3" width="10.21875" customWidth="1"/>
-    <col min="4" max="4" width="21.21875" customWidth="1"/>
+    <col min="1" max="1" width="9.19921875" customWidth="1"/>
+    <col min="2" max="3" width="10.19921875" customWidth="1"/>
+    <col min="4" max="4" width="21.19921875" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="10.53125" customWidth="1"/>
+    <col min="7" max="7" width="12.19921875" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" customWidth="1"/>
+    <col min="9" max="9" width="9.86328125" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="12" width="8.21875" customWidth="1"/>
-    <col min="13" max="13" width="8.44140625" customWidth="1"/>
-    <col min="14" max="14" width="9.77734375" customWidth="1"/>
+    <col min="11" max="12" width="8.19921875" customWidth="1"/>
+    <col min="13" max="13" width="8.46484375" customWidth="1"/>
+    <col min="14" max="14" width="9.796875" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -574,9 +570,7 @@
       <c r="F1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
@@ -609,7 +603,7 @@
       <c r="AK1"/>
       <c r="AL1"/>
     </row>
-    <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -651,7 +645,7 @@
       <c r="AK2"/>
       <c r="AL2"/>
     </row>
-    <row r="3" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -668,11 +662,9 @@
         <v>6</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>6</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -705,7 +697,7 @@
       <c r="AK3"/>
       <c r="AL3"/>
     </row>
-    <row r="4" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -747,7 +739,7 @@
       <c r="AK4"/>
       <c r="AL4"/>
     </row>
-    <row r="5" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -764,11 +756,9 @@
         <v>7</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -801,7 +791,7 @@
       <c r="AK5"/>
       <c r="AL5"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>1</v>
       </c>
@@ -815,15 +805,15 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>400</v>
-      </c>
-      <c r="G6">
-        <v>800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>2</v>
       </c>
@@ -837,45 +827,45 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>400</v>
-      </c>
-      <c r="G7">
-        <v>800</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.4">
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.4">
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.4">
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.4">
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.4">
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.4">
       <c r="J13" s="3"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.4">
       <c r="J14" s="3"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.4">
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
     </row>

--- a/Luban/Config/Datas/characters.xlsx
+++ b/Luban/Config/Datas/characters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\WGame\Client\Luban\Config\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\WGame\Client\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0559F748-66C2-4B9C-90B4-1F0E144A1AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C37697-FF14-4F5C-8884-85AD0A5A2B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -530,28 +530,28 @@
   <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G1" sqref="G1:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" customWidth="1"/>
-    <col min="2" max="3" width="10.19921875" customWidth="1"/>
-    <col min="4" max="4" width="21.19921875" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" customWidth="1"/>
+    <col min="2" max="3" width="10.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.53125" customWidth="1"/>
-    <col min="7" max="7" width="12.19921875" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.86328125" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="12" width="8.19921875" customWidth="1"/>
-    <col min="13" max="13" width="8.46484375" customWidth="1"/>
-    <col min="14" max="14" width="9.796875" customWidth="1"/>
+    <col min="11" max="12" width="8.21875" customWidth="1"/>
+    <col min="13" max="13" width="8.44140625" customWidth="1"/>
+    <col min="14" max="14" width="9.77734375" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -603,7 +603,7 @@
       <c r="AK1"/>
       <c r="AL1"/>
     </row>
-    <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -645,7 +645,7 @@
       <c r="AK2"/>
       <c r="AL2"/>
     </row>
-    <row r="3" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -697,7 +697,7 @@
       <c r="AK3"/>
       <c r="AL3"/>
     </row>
-    <row r="4" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -739,7 +739,7 @@
       <c r="AK4"/>
       <c r="AL4"/>
     </row>
-    <row r="5" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -791,7 +791,7 @@
       <c r="AK5"/>
       <c r="AL5"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1</v>
       </c>
@@ -813,7 +813,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2</v>
       </c>
@@ -835,37 +835,37 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J13" s="3"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J14" s="3"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
     </row>
